--- a/ig/core/StructureDefinition-medcom-core-careteam.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-careteam.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -372,7 +372,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -385,6 +385,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>CareTeam.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CareTeam.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CareTeam.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CareTeam.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>CareTeam.contained</t>
@@ -410,34 +513,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>CareTeam.modifierExtension</t>
@@ -490,9 +572,6 @@
     <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the care team as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Indicates the status of the care team.</t>
   </si>
   <si>
@@ -536,10 +615,6 @@
     <t>CareTeam.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Name of the team, such as crisis assessment team</t>
   </si>
   <si>
@@ -641,25 +716,7 @@
     <t>CareTeam.participant.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>CareTeam.participant.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CareTeam.participant.modifierExtension</t>
@@ -1142,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1151,17 +1208,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.76953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.87109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1170,25 +1227,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="122.12890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.66015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="108.3203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.5" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="148.80859375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="27.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="133.5703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="24.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1438,7 +1495,7 @@
         <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>75</v>
@@ -1880,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>75</v>
@@ -1981,14 +2038,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -2000,17 +2057,15 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -2059,13 +2114,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -2080,19 +2135,19 @@
         <v>75</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2111,16 +2166,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2158,19 +2213,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2182,7 +2237,7 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -2191,51 +2246,47 @@
         <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>139</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2259,13 +2310,13 @@
         <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>75</v>
@@ -2283,19 +2334,19 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -2304,15 +2355,15 @@
         <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2320,35 +2371,33 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2396,68 +2445,68 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2483,13 +2532,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2507,40 +2556,40 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2556,23 +2605,21 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2596,13 +2643,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2620,7 +2667,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2632,58 +2679,60 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2737,13 +2786,13 @@
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -2752,26 +2801,26 @@
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2783,17 +2832,19 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2842,13 +2893,13 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
@@ -2857,7 +2908,7 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -2868,10 +2919,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2888,22 +2939,22 @@
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2929,13 +2980,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -2953,7 +3004,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2968,7 +3019,7 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -2979,10 +3030,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2993,7 +3044,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3005,17 +3056,19 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3040,13 +3093,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3064,13 +3117,13 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
@@ -3079,7 +3132,7 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3090,10 +3143,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3101,22 +3154,22 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>192</v>
@@ -3124,7 +3177,9 @@
       <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3173,40 +3228,40 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3222,19 +3277,21 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3282,7 +3339,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3294,35 +3351,35 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3331,19 +3388,19 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3393,71 +3450,69 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3506,36 +3561,36 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3555,20 +3610,18 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3593,13 +3646,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -3617,7 +3670,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3626,27 +3679,27 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3666,20 +3719,18 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3728,7 +3779,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3740,35 +3791,35 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>226</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3777,21 +3828,21 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -3839,19 +3890,19 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
@@ -3860,47 +3911,51 @@
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -3948,19 +4003,19 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
@@ -3969,15 +4024,15 @@
         <v>75</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3997,18 +4052,20 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4033,13 +4090,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4057,7 +4114,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4072,21 +4129,21 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4097,7 +4154,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4106,18 +4163,20 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4166,13 +4225,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
@@ -4181,21 +4240,21 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4209,7 +4268,7 @@
         <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>75</v>
@@ -4218,17 +4277,17 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4277,13 +4336,13 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -4303,10 +4362,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4317,7 +4376,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4329,7 +4388,7 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>251</v>
@@ -4337,9 +4396,7 @@
       <c r="M29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4388,13 +4445,13 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -4414,10 +4471,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4440,13 +4497,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4473,13 +4530,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -4497,7 +4554,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4512,7 +4569,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4521,8 +4578,448 @@
         <v>75</v>
       </c>
     </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM30">
+  <autoFilter ref="A1:AM34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4532,7 +5029,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/core/StructureDefinition-medcom-core-careteam.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-careteam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -606,7 +606,7 @@
     <t>Indicates the type of care team.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
+    <t>http://hl7.org/fhir/ValueSet/care-team-category|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -631,7 +631,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -651,7 +651,7 @@
     <t>CareTeam.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -751,7 +751,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>REL.2 (or PRT-4?)</t>
@@ -763,7 +763,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson|Patient|Organization|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Patient|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -789,7 +789,7 @@
     <t>CareTeam.participant.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.why[x]</t>
@@ -832,7 +832,7 @@
     <t>CareTeam.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -1218,7 +1218,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1233,7 +1233,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="108.3203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.5" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.6171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/ig/core/StructureDefinition-medcom-core-careteam.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-careteam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>84</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>84</v>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>84</v>
